--- a/クッキングマスターver1.1.xlsx
+++ b/クッキングマスターver1.1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Desktop\Cooking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Git用\CookingMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーの操作可能リスト" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="仕事振り分け用紙" sheetId="8" r:id="rId9"/>
     <sheet name="UIアニメーション" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="149">
   <si>
     <t>入力デバイス＿パッド</t>
     <rPh sb="0" eb="2">
@@ -1141,13 +1141,38 @@
   </si>
   <si>
     <t>←こういうの</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入店ベル</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カランカラン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>音符出現</t>
+    <rPh sb="0" eb="2">
+      <t>オンプ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひゅん</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1498,7 +1523,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1791,7 +1822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1873,7 +1904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1901,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1979,10 +2010,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="K1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -2002,7 +2033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2044,7 +2075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2226,7 +2257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2352,7 +2383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2654,11 +2685,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A3:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2764,9 +2795,15 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -2801,7 +2838,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -2837,7 +2874,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -2858,7 +2895,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -2879,7 +2916,7 @@
         <v>118</v>
       </c>
       <c r="F13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -2900,7 +2937,7 @@
         <v>119</v>
       </c>
       <c r="F14" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -2921,7 +2958,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -2942,7 +2979,7 @@
         <v>43</v>
       </c>
       <c r="F16" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -2963,7 +3000,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -2984,7 +3021,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -3020,7 +3057,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
@@ -3044,7 +3081,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -3065,7 +3102,7 @@
         <v>49</v>
       </c>
       <c r="F22" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -3206,7 +3243,7 @@
         <v>125</v>
       </c>
       <c r="F31" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -3227,7 +3264,7 @@
         <v>126</v>
       </c>
       <c r="F32" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -3248,7 +3285,7 @@
         <v>125</v>
       </c>
       <c r="F33" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -3315,7 +3352,7 @@
         <v>51</v>
       </c>
       <c r="F38" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -3336,7 +3373,7 @@
         <v>122</v>
       </c>
       <c r="F39" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -3357,19 +3394,36 @@
         <v>123</v>
       </c>
       <c r="F40" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="2">
+        <v>21</v>
+      </c>
+      <c r="G41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
